--- a/individual amortization tables/LoanTape 16.xlsx
+++ b/individual amortization tables/LoanTape 16.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28-04-2024</t>
+          <t>29-04-2024</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -561,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27-07-2024</t>
+          <t>29-07-2024</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25-10-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23-01-2025</t>
+          <t>29-01-2025</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23-04-2025</t>
+          <t>29-04-2025</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22-07-2025</t>
+          <t>29-07-2025</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18-01-2026</t>
+          <t>29-01-2026</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -804,7 +804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K722"/>
+  <dimension ref="A1:K733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4199,7 +4199,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4210,16 +4210,16 @@
         <v>10000</v>
       </c>
       <c r="E92" t="n">
-        <v>161.72</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>125.52</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>36.2</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>9838.799999999999</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="93">
@@ -4244,19 +4244,19 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9838.799999999999</v>
+        <v>10000</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>161.72</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>125.52</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7529,7 +7529,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -7540,16 +7540,16 @@
         <v>9838.799999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>161.72</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>123.5</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>38.22</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>122.99</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>9677.6</v>
+        <v>9838.799999999999</v>
       </c>
     </row>
     <row r="183">
@@ -7566,7 +7566,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>9677.6</v>
+        <v>9838.799999999999</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>9677.6</v>
+        <v>9838.799999999999</v>
       </c>
     </row>
     <row r="184">
@@ -7611,19 +7611,19 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>9677.6</v>
+        <v>9838.799999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>161.72</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>123.5</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>38.22</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>122.99</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -10859,7 +10859,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -10870,16 +10870,16 @@
         <v>9677.6</v>
       </c>
       <c r="E272" t="n">
-        <v>161.72</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>121.47</v>
+        <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>40.24</v>
+        <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>120.97</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
     </row>
     <row r="273">
@@ -10896,7 +10896,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
     </row>
     <row r="274">
@@ -10933,7 +10933,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="K274" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
     </row>
     <row r="275">
@@ -10970,7 +10970,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
     </row>
     <row r="276">
@@ -11015,19 +11015,19 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>9516.379999999999</v>
+        <v>9677.6</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>161.72</v>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>121.47</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>40.24</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>120.97</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -14189,7 +14189,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -14200,16 +14200,16 @@
         <v>9516.379999999999</v>
       </c>
       <c r="E362" t="n">
-        <v>161.72</v>
+        <v>0</v>
       </c>
       <c r="F362" t="n">
-        <v>119.45</v>
+        <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>42.27</v>
+        <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>118.95</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -14218,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="K362" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
     </row>
     <row r="363">
@@ -14226,7 +14226,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
       <c r="E363" t="n">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
     </row>
     <row r="364">
@@ -14263,7 +14263,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
       <c r="E364" t="n">
         <v>0</v>
@@ -14292,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="K364" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
     </row>
     <row r="365">
@@ -14300,7 +14300,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="K365" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
     </row>
     <row r="366">
@@ -14337,7 +14337,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
     </row>
     <row r="367">
@@ -14374,7 +14374,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -14403,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="K367" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
     </row>
     <row r="368">
@@ -14419,19 +14419,19 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>9355.16</v>
+        <v>9516.379999999999</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>161.72</v>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>119.45</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>42.27</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>118.95</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -17519,7 +17519,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -17530,16 +17530,16 @@
         <v>9355.16</v>
       </c>
       <c r="E452" t="n">
-        <v>161.72</v>
+        <v>0</v>
       </c>
       <c r="F452" t="n">
-        <v>117.43</v>
+        <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>44.29</v>
+        <v>0</v>
       </c>
       <c r="H452" t="n">
-        <v>116.94</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="K452" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
     </row>
     <row r="453">
@@ -17556,7 +17556,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
       <c r="E453" t="n">
         <v>0</v>
@@ -17585,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="K453" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
     </row>
     <row r="454">
@@ -17593,7 +17593,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -17601,7 +17601,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
@@ -17622,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="K454" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
     </row>
     <row r="455">
@@ -17630,7 +17630,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
       <c r="E455" t="n">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="K455" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
     </row>
     <row r="456">
@@ -17667,7 +17667,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
       <c r="E456" t="n">
         <v>0</v>
@@ -17696,7 +17696,7 @@
         <v>0</v>
       </c>
       <c r="K456" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
     </row>
     <row r="457">
@@ -17704,7 +17704,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="K457" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
     </row>
     <row r="458">
@@ -17749,19 +17749,19 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>9193.93</v>
+        <v>9355.16</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>161.72</v>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>117.43</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>44.29</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>116.94</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -20849,7 +20849,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -20860,16 +20860,16 @@
         <v>9193.93</v>
       </c>
       <c r="E542" t="n">
-        <v>161.72</v>
+        <v>0</v>
       </c>
       <c r="F542" t="n">
-        <v>115.4</v>
+        <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>46.31</v>
+        <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>114.92</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="K542" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
     </row>
     <row r="543">
@@ -20886,7 +20886,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
       <c r="E543" t="n">
         <v>0</v>
@@ -20915,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="K543" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
     </row>
     <row r="544">
@@ -20923,7 +20923,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
       <c r="E544" t="n">
         <v>0</v>
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="K544" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
     </row>
     <row r="545">
@@ -20960,7 +20960,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
       <c r="E545" t="n">
         <v>0</v>
@@ -20989,7 +20989,7 @@
         <v>0</v>
       </c>
       <c r="K545" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
     </row>
     <row r="546">
@@ -20997,7 +20997,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
       <c r="E546" t="n">
         <v>0</v>
@@ -21026,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="K546" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
     </row>
     <row r="547">
@@ -21034,7 +21034,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
       <c r="E547" t="n">
         <v>0</v>
@@ -21063,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="K547" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
     </row>
     <row r="548">
@@ -21071,7 +21071,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
       <c r="E548" t="n">
         <v>0</v>
@@ -21100,7 +21100,7 @@
         <v>0</v>
       </c>
       <c r="K548" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
     </row>
     <row r="549">
@@ -21116,19 +21116,19 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>9032.690000000001</v>
+        <v>9193.93</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>161.72</v>
       </c>
       <c r="F549" t="n">
-        <v>0</v>
+        <v>115.4</v>
       </c>
       <c r="G549" t="n">
-        <v>0</v>
+        <v>46.31</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>114.92</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -24179,7 +24179,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -24190,16 +24190,16 @@
         <v>9032.690000000001</v>
       </c>
       <c r="E632" t="n">
-        <v>161.72</v>
+        <v>0</v>
       </c>
       <c r="F632" t="n">
-        <v>113.38</v>
+        <v>0</v>
       </c>
       <c r="G632" t="n">
-        <v>48.34</v>
+        <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>112.91</v>
+        <v>0</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="K632" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="633">
@@ -24216,7 +24216,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E633" t="n">
         <v>0</v>
@@ -24245,7 +24245,7 @@
         <v>0</v>
       </c>
       <c r="K633" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="634">
@@ -24253,7 +24253,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E634" t="n">
         <v>0</v>
@@ -24282,7 +24282,7 @@
         <v>0</v>
       </c>
       <c r="K634" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="635">
@@ -24290,7 +24290,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E635" t="n">
         <v>0</v>
@@ -24319,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="K635" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="636">
@@ -24327,7 +24327,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E636" t="n">
         <v>0</v>
@@ -24356,7 +24356,7 @@
         <v>0</v>
       </c>
       <c r="K636" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="637">
@@ -24364,7 +24364,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E637" t="n">
         <v>0</v>
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="K637" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="638">
@@ -24401,7 +24401,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E638" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="K638" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="639">
@@ -24438,7 +24438,7 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E639" t="n">
         <v>0</v>
@@ -24467,7 +24467,7 @@
         <v>0</v>
       </c>
       <c r="K639" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="640">
@@ -24475,7 +24475,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E640" t="n">
         <v>0</v>
@@ -24504,7 +24504,7 @@
         <v>0</v>
       </c>
       <c r="K640" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
     </row>
     <row r="641">
@@ -24520,19 +24520,19 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>8871.450000000001</v>
+        <v>9032.690000000001</v>
       </c>
       <c r="E641" t="n">
-        <v>0</v>
+        <v>161.72</v>
       </c>
       <c r="F641" t="n">
-        <v>0</v>
+        <v>113.38</v>
       </c>
       <c r="G641" t="n">
-        <v>0</v>
+        <v>48.34</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>112.91</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
@@ -27520,24 +27520,431 @@
         <v>8871.450000000001</v>
       </c>
       <c r="E722" t="n">
+        <v>0</v>
+      </c>
+      <c r="F722" t="n">
+        <v>0</v>
+      </c>
+      <c r="G722" t="n">
+        <v>0</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0</v>
+      </c>
+      <c r="J722" t="n">
+        <v>0</v>
+      </c>
+      <c r="K722" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>7</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>19-01-2026</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E723" t="n">
+        <v>0</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0</v>
+      </c>
+      <c r="G723" t="n">
+        <v>0</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0</v>
+      </c>
+      <c r="J723" t="n">
+        <v>0</v>
+      </c>
+      <c r="K723" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>7</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>20-01-2026</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0</v>
+      </c>
+      <c r="J724" t="n">
+        <v>0</v>
+      </c>
+      <c r="K724" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>7</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>21-01-2026</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0</v>
+      </c>
+      <c r="J725" t="n">
+        <v>0</v>
+      </c>
+      <c r="K725" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>7</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>22-01-2026</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0</v>
+      </c>
+      <c r="G726" t="n">
+        <v>0</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0</v>
+      </c>
+      <c r="J726" t="n">
+        <v>0</v>
+      </c>
+      <c r="K726" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>7</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>23-01-2026</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0</v>
+      </c>
+      <c r="F727" t="n">
+        <v>0</v>
+      </c>
+      <c r="G727" t="n">
+        <v>0</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0</v>
+      </c>
+      <c r="J727" t="n">
+        <v>0</v>
+      </c>
+      <c r="K727" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>7</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>24-01-2026</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0</v>
+      </c>
+      <c r="G728" t="n">
+        <v>0</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0</v>
+      </c>
+      <c r="J728" t="n">
+        <v>0</v>
+      </c>
+      <c r="K728" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>7</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>25-01-2026</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0</v>
+      </c>
+      <c r="J729" t="n">
+        <v>0</v>
+      </c>
+      <c r="K729" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>7</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>26-01-2026</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E730" t="n">
+        <v>0</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0</v>
+      </c>
+      <c r="J730" t="n">
+        <v>0</v>
+      </c>
+      <c r="K730" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>7</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>27-01-2026</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0</v>
+      </c>
+      <c r="J731" t="n">
+        <v>0</v>
+      </c>
+      <c r="K731" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>7</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>28-01-2026</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0</v>
+      </c>
+      <c r="J732" t="n">
+        <v>0</v>
+      </c>
+      <c r="K732" t="n">
+        <v>8871.450000000001</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>8</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>29-01-2026</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>8871.450000000001</v>
+      </c>
+      <c r="E733" t="n">
         <v>161.72</v>
       </c>
-      <c r="F722" t="n">
+      <c r="F733" t="n">
         <v>111.36</v>
       </c>
-      <c r="G722" t="n">
+      <c r="G733" t="n">
         <v>50.36</v>
       </c>
-      <c r="H722" t="n">
+      <c r="H733" t="n">
         <v>110.89</v>
       </c>
-      <c r="I722" t="n">
-        <v>0</v>
-      </c>
-      <c r="J722" t="n">
+      <c r="I733" t="n">
+        <v>0</v>
+      </c>
+      <c r="J733" t="n">
         <v>8710.190000000001</v>
       </c>
-      <c r="K722" t="n">
+      <c r="K733" t="n">
         <v>0</v>
       </c>
     </row>
